--- a/2nd_teamproject_염탐꾼.xlsx
+++ b/2nd_teamproject_염탐꾼.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbwls\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbwls\Desktop\Fronted_class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02A22AF-DE6F-4143-8294-03E3A09640F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BB3BC3-E5AA-4091-99CC-B3ABCA30A89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>프로젝트 이름</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>마감기한</t>
-  </si>
-  <si>
-    <t>Start</t>
   </si>
   <si>
     <t>Middle</t>
@@ -63,9 +60,6 @@
     <t>진행현황</t>
   </si>
   <si>
-    <t>Week 1</t>
-  </si>
-  <si>
     <t>Week 2</t>
   </si>
   <si>
@@ -81,13 +75,7 @@
     <t>Week 6</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>W</t>
   </si>
   <si>
     <t>F</t>
@@ -147,40 +135,64 @@
     <t>배포데이터 제출 및 발표</t>
   </si>
   <si>
-    <t>인스타그램 클론 코딩</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>염동훈</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>박리아, 정보경, 양희진, 원하린, 김지선</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      2024-10-18 / 금요일</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>상세 페이지 제작</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>로그인 페이지 제작</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>React 기능구현</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Final</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>디즈니플러스 클론 코딩</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      2024-12-09 / 금요일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -191,7 +203,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,32 +253,11 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Malgun Gothic"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -281,8 +272,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,26 +295,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7F7F7F"/>
-        <bgColor rgb="FF7F7F7F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE4D5"/>
-        <bgColor rgb="FFFBE4D5"/>
       </patternFill>
     </fill>
     <fill>
@@ -339,25 +319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor rgb="FFD9E2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor rgb="FFD9E2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor rgb="FFD9E2F3"/>
       </patternFill>
     </fill>
@@ -365,36 +327,6 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-4.9989318521683403E-2"/>
         <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.14999847407452621"/>
-        <bgColor rgb="FFD9E2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -411,50 +343,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor rgb="FFD9E2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEF893D"/>
-        <bgColor rgb="FFD9E2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor rgb="FFD9E2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -469,8 +365,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor rgb="FF7F7F7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="60">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -661,50 +623,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
@@ -804,17 +722,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -890,6 +797,49 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="dotted">
         <color rgb="FF000000"/>
       </bottom>
@@ -900,7 +850,9 @@
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
@@ -910,10 +862,25 @@
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="hair">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
@@ -924,7 +891,7 @@
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
-      <top style="dotted">
+      <top style="hair">
         <color rgb="FF000000"/>
       </top>
       <bottom style="hair">
@@ -936,37 +903,39 @@
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="hair">
         <color rgb="FF000000"/>
       </right>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="hair">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="dotted">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dotted">
+      <top style="hair">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="dotted">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -979,7 +948,7 @@
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="hair">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -988,13 +957,13 @@
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="hair">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1003,181 +972,53 @@
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
+      <top/>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="hair">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1202,286 +1043,235 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="15" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="22" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="24" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="26" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1705,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL1003"/>
+  <dimension ref="A1:AH1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1717,1016 +1507,807 @@
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="40.5546875" customWidth="1"/>
     <col min="4" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="52" width="5.5546875" customWidth="1"/>
-    <col min="53" max="53" width="5.6640625" customWidth="1"/>
+    <col min="9" max="31" width="7.109375" customWidth="1"/>
+    <col min="32" max="45" width="5.5546875" customWidth="1"/>
+    <col min="46" max="46" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" customHeight="1">
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:38" ht="39.75" customHeight="1">
+    <row r="2" spans="1:34" ht="39.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="39.75" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="39.75" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="39.75" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="39.75" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="39.75" customHeight="1" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="39.75" customHeight="1" thickBot="1">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="66"/>
+      <c r="K5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="94" t="s">
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="47"/>
+    </row>
+    <row r="6" spans="1:34" ht="30" customHeight="1" thickBot="1">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:34" ht="30" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="97" t="s">
+      <c r="C7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="30" customHeight="1">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="31">
+        <v>45603</v>
+      </c>
+      <c r="J8" s="31">
+        <v>45604</v>
+      </c>
+      <c r="K8" s="31">
+        <v>45607</v>
+      </c>
+      <c r="L8" s="31">
+        <v>45608</v>
+      </c>
+      <c r="M8" s="31">
+        <v>45609</v>
+      </c>
+      <c r="N8" s="31">
+        <v>45610</v>
+      </c>
+      <c r="O8" s="31">
+        <v>45611</v>
+      </c>
+      <c r="P8" s="31">
+        <v>45614</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>45615</v>
+      </c>
+      <c r="R8" s="31">
+        <v>45616</v>
+      </c>
+      <c r="S8" s="31">
+        <v>45617</v>
+      </c>
+      <c r="T8" s="31">
+        <v>45618</v>
+      </c>
+      <c r="U8" s="31">
+        <v>45621</v>
+      </c>
+      <c r="V8" s="31">
+        <v>45622</v>
+      </c>
+      <c r="W8" s="31">
+        <v>45623</v>
+      </c>
+      <c r="X8" s="31">
+        <v>45624</v>
+      </c>
+      <c r="Y8" s="31">
+        <v>45625</v>
+      </c>
+      <c r="Z8" s="31">
+        <v>45628</v>
+      </c>
+      <c r="AA8" s="31">
+        <v>45629</v>
+      </c>
+      <c r="AB8" s="31">
+        <v>45630</v>
+      </c>
+      <c r="AC8" s="31">
+        <v>45631</v>
+      </c>
+      <c r="AD8" s="31">
+        <v>45632</v>
+      </c>
+      <c r="AE8" s="31">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="30" customHeight="1">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="99"/>
-    </row>
-    <row r="6" spans="1:38" ht="30" customHeight="1" thickBot="1">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:38" ht="30" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="80" t="s">
+      <c r="N9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI7" s="84"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="84"/>
-      <c r="AL7" s="85"/>
-    </row>
-    <row r="8" spans="1:38" ht="30" customHeight="1">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="73">
-        <v>45544</v>
-      </c>
-      <c r="J8" s="73">
-        <v>45545</v>
-      </c>
-      <c r="K8" s="73">
-        <v>45546</v>
-      </c>
-      <c r="L8" s="73">
-        <v>45547</v>
-      </c>
-      <c r="M8" s="73">
-        <v>45548</v>
-      </c>
-      <c r="N8" s="74">
-        <v>45549</v>
-      </c>
-      <c r="O8" s="74">
-        <v>45550</v>
-      </c>
-      <c r="P8" s="74">
-        <v>45551</v>
-      </c>
-      <c r="Q8" s="74">
-        <v>45552</v>
-      </c>
-      <c r="R8" s="74">
-        <v>45553</v>
-      </c>
-      <c r="S8" s="76">
-        <v>45554</v>
-      </c>
-      <c r="T8" s="76">
-        <v>45555</v>
-      </c>
-      <c r="U8" s="76">
-        <v>45556</v>
-      </c>
-      <c r="V8" s="76">
-        <v>45557</v>
-      </c>
-      <c r="W8" s="76">
-        <v>45558</v>
-      </c>
-      <c r="X8" s="86">
-        <v>45559</v>
-      </c>
-      <c r="Y8" s="86">
-        <v>45560</v>
-      </c>
-      <c r="Z8" s="86">
-        <v>45561</v>
-      </c>
-      <c r="AA8" s="86">
-        <v>45562</v>
-      </c>
-      <c r="AB8" s="86">
-        <v>45563</v>
-      </c>
-      <c r="AC8" s="88">
-        <v>45564</v>
-      </c>
-      <c r="AD8" s="88">
-        <v>45565</v>
-      </c>
-      <c r="AE8" s="88">
-        <v>45566</v>
-      </c>
-      <c r="AF8" s="88">
-        <v>45567</v>
-      </c>
-      <c r="AG8" s="88">
-        <v>45568</v>
-      </c>
-      <c r="AH8" s="92">
-        <v>45569</v>
-      </c>
-      <c r="AI8" s="92">
-        <v>45570</v>
-      </c>
-      <c r="AJ8" s="92">
-        <v>45571</v>
-      </c>
-      <c r="AK8" s="92">
-        <v>45572</v>
-      </c>
-      <c r="AL8" s="92">
-        <v>45573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="30" customHeight="1">
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="71" t="s">
+      <c r="O9" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z9" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA9" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD9" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE9" s="84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="39.75" customHeight="1">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="D10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="72" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="10">
+        <v>45603</v>
+      </c>
+      <c r="G10" s="10">
+        <v>45607</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+    </row>
+    <row r="11" spans="1:34" ht="39.75" customHeight="1">
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="72" t="s">
+      <c r="D11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="U9" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y9" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA9" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB9" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC9" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD9" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE9" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF9" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG9" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH9" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI9" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ9" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK9" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL9" s="93" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="39.75" customHeight="1">
-      <c r="B10" s="9">
+      <c r="E11" s="42"/>
+      <c r="F11" s="10">
+        <v>45603</v>
+      </c>
+      <c r="G11" s="10">
+        <v>45607</v>
+      </c>
+      <c r="H11" s="15">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="11">
-        <v>45544</v>
-      </c>
-      <c r="G10" s="11">
-        <v>45488</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-    </row>
-    <row r="11" spans="1:38" ht="39.75" customHeight="1">
-      <c r="B11" s="16">
-        <v>2</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="11">
-        <v>45544</v>
-      </c>
-      <c r="G11" s="11">
-        <v>45488</v>
-      </c>
-      <c r="H11" s="17">
-        <v>1</v>
-      </c>
-      <c r="I11" s="18"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="14"/>
-    </row>
-    <row r="12" spans="1:38" ht="39.75" customHeight="1">
-      <c r="B12" s="16">
+      <c r="L11" s="16"/>
+      <c r="M11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+    </row>
+    <row r="12" spans="1:34" ht="39.75" customHeight="1">
+      <c r="B12" s="14">
         <v>3</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="10">
+        <v>45607</v>
+      </c>
+      <c r="G12" s="10">
+        <v>45611</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AH12" s="60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="39.75" customHeight="1">
+      <c r="B13" s="21">
+        <v>4</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="23">
+        <v>45611</v>
+      </c>
+      <c r="G13" s="23">
+        <v>45614</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+    </row>
+    <row r="14" spans="1:34" ht="39.75" customHeight="1">
+      <c r="B14" s="21">
+        <v>5</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D14" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="11">
-        <v>45489</v>
-      </c>
-      <c r="G12" s="11">
-        <v>45490</v>
-      </c>
-      <c r="H12" s="21">
+      <c r="E14" s="38"/>
+      <c r="F14" s="23">
+        <v>45614</v>
+      </c>
+      <c r="G14" s="23">
+        <v>45618</v>
+      </c>
+      <c r="H14" s="18">
         <v>0</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-    </row>
-    <row r="13" spans="1:38" ht="39.75" customHeight="1">
-      <c r="B13" s="25">
-        <v>4</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+    </row>
+    <row r="15" spans="1:34" ht="39.75" customHeight="1">
+      <c r="B15" s="21">
+        <v>6</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="27">
-        <v>45491</v>
-      </c>
-      <c r="G13" s="27">
-        <v>45505</v>
-      </c>
-      <c r="H13" s="21">
+      <c r="E15" s="38"/>
+      <c r="F15" s="23">
+        <v>45618</v>
+      </c>
+      <c r="G15" s="23">
+        <v>45631</v>
+      </c>
+      <c r="H15" s="18">
         <v>0</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-    </row>
-    <row r="14" spans="1:38" ht="39.75" customHeight="1">
-      <c r="B14" s="25">
-        <v>5</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="27">
-        <v>45502</v>
-      </c>
-      <c r="G14" s="27">
-        <v>45506</v>
-      </c>
-      <c r="H14" s="21">
-        <v>0</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-    </row>
-    <row r="15" spans="1:38" ht="39.75" customHeight="1">
-      <c r="B15" s="25">
-        <v>6</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="27">
-        <v>45509</v>
-      </c>
-      <c r="G15" s="27">
-        <v>45520</v>
-      </c>
-      <c r="H15" s="21">
-        <v>0</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
       <c r="U15" s="24"/>
       <c r="V15" s="24"/>
       <c r="W15" s="24"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="24"/>
-    </row>
-    <row r="16" spans="1:38" ht="39.75" customHeight="1">
-      <c r="B16" s="25">
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+    </row>
+    <row r="16" spans="1:34" ht="39.75" customHeight="1">
+      <c r="B16" s="21">
         <v>7</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="27">
-        <v>45509</v>
-      </c>
-      <c r="G16" s="27">
-        <v>45520</v>
-      </c>
-      <c r="H16" s="21">
+      <c r="C16" s="43"/>
+      <c r="D16" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="F16" s="23">
+        <v>45618</v>
+      </c>
+      <c r="G16" s="23">
+        <v>45631</v>
+      </c>
+      <c r="H16" s="18">
         <v>0</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
       <c r="R16" s="24"/>
       <c r="S16" s="24"/>
       <c r="T16" s="24"/>
       <c r="U16" s="24"/>
       <c r="V16" s="24"/>
       <c r="W16" s="24"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="29"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-    </row>
-    <row r="17" spans="2:38" ht="39.75" customHeight="1">
-      <c r="B17" s="25">
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+    </row>
+    <row r="17" spans="2:31" ht="39.75" customHeight="1">
+      <c r="B17" s="21">
         <v>8</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="27">
-        <v>45509</v>
-      </c>
-      <c r="G17" s="27">
-        <v>45520</v>
-      </c>
-      <c r="H17" s="21">
+      <c r="C17" s="44"/>
+      <c r="D17" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="23">
+        <v>45618</v>
+      </c>
+      <c r="G17" s="23">
+        <v>45631</v>
+      </c>
+      <c r="H17" s="18">
         <v>0</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
       <c r="T17" s="24"/>
       <c r="U17" s="24"/>
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="24"/>
-    </row>
-    <row r="18" spans="2:38" ht="39.75" customHeight="1">
-      <c r="B18" s="25">
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+    </row>
+    <row r="18" spans="2:31" ht="39.75" customHeight="1">
+      <c r="B18" s="21">
         <v>9</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="27">
-        <v>45525</v>
-      </c>
-      <c r="G18" s="27">
-        <v>45530</v>
-      </c>
-      <c r="H18" s="21">
+      <c r="C18" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="23">
+        <v>45533</v>
+      </c>
+      <c r="G18" s="23">
+        <v>45632</v>
+      </c>
+      <c r="H18" s="18">
         <v>0</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-    </row>
-    <row r="19" spans="2:38" ht="39.75" customHeight="1">
-      <c r="B19" s="25">
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+    </row>
+    <row r="19" spans="2:31" ht="39.75" customHeight="1">
+      <c r="B19" s="21">
         <v>10</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="27">
-        <v>45527</v>
-      </c>
-      <c r="G19" s="27">
-        <v>45533</v>
-      </c>
-      <c r="H19" s="21">
+      <c r="C19" s="36"/>
+      <c r="D19" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="23">
+        <v>45537</v>
+      </c>
+      <c r="G19" s="23">
+        <v>45632</v>
+      </c>
+      <c r="H19" s="18">
         <v>0</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="23"/>
-      <c r="AL19" s="23"/>
-    </row>
-    <row r="20" spans="2:38" ht="39.75" customHeight="1">
-      <c r="B20" s="25">
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+    </row>
+    <row r="20" spans="2:31" ht="39.75" customHeight="1" thickBot="1">
+      <c r="B20" s="21">
         <v>11</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="26">
+        <v>45635</v>
+      </c>
+      <c r="G20" s="26">
+        <v>45635</v>
+      </c>
+      <c r="H20" s="27">
+        <v>0</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+    </row>
+    <row r="21" spans="2:31" ht="39.75" customHeight="1">
+      <c r="B21" s="21">
+        <v>12</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" ht="39.75" customHeight="1" thickBot="1">
+      <c r="B22" s="21">
+        <v>13</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="27">
-        <v>45533</v>
-      </c>
-      <c r="G20" s="27">
-        <v>45537</v>
-      </c>
-      <c r="H20" s="21">
-        <v>0</v>
-      </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="24"/>
-    </row>
-    <row r="21" spans="2:38" ht="39.75" customHeight="1">
-      <c r="B21" s="25">
-        <v>12</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="27">
-        <v>45537</v>
-      </c>
-      <c r="G21" s="27">
-        <v>45540</v>
-      </c>
-      <c r="H21" s="21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="24"/>
-    </row>
-    <row r="22" spans="2:38" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B22" s="25">
-        <v>13</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="34">
-        <v>45541</v>
-      </c>
-      <c r="G22" s="34">
-        <v>45541</v>
-      </c>
-      <c r="H22" s="35">
-        <v>0</v>
-      </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="39"/>
-    </row>
-    <row r="23" spans="2:38" ht="30" customHeight="1">
+    </row>
+    <row r="23" spans="2:31" ht="30" customHeight="1">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:38" ht="30" customHeight="1">
+    <row r="24" spans="2:31" ht="30" customHeight="1">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:38" ht="30" customHeight="1">
+    <row r="25" spans="2:31" ht="30" customHeight="1">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:38" ht="30" customHeight="1">
+    <row r="26" spans="2:31" ht="30" customHeight="1">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:38" ht="30" customHeight="1">
+    <row r="27" spans="2:31" ht="30" customHeight="1">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:38" ht="30" customHeight="1">
+    <row r="28" spans="2:31" ht="30" customHeight="1">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:38" ht="30" customHeight="1">
+    <row r="29" spans="2:31" ht="30" customHeight="1">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:38" ht="30" customHeight="1">
+    <row r="30" spans="2:31" ht="30" customHeight="1">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:38" ht="30" customHeight="1">
+    <row r="31" spans="2:31" ht="30" customHeight="1">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:38" ht="30" customHeight="1">
+    <row r="32" spans="2:31" ht="30" customHeight="1">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" ht="30" customHeight="1">
@@ -5643,22 +5224,21 @@
       <c r="B1003" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="X7:AB7"/>
+  <mergeCells count="27">
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="U7:Y7"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="D7:E9"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D15:E15"/>
@@ -5667,15 +5247,13 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="AH7:AL7"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="AC7:AG7"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="C15:C17"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
